--- a/Бронь 28.01.2025.xlsx
+++ b/Бронь 28.01.2025.xlsx
@@ -422,31 +422,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>89101439147</t>
-        </is>
+      <c r="A5" t="n">
+        <v>89101439147</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>87987082929</t>
-        </is>
+      <c r="A6" t="n">
+        <v>87987082929</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>87915956949</t>
-        </is>
+      <c r="A7" t="n">
+        <v>87915956949</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>88312484896</t>
-        </is>
+      <c r="A8" t="n">
+        <v>88312484896</v>
       </c>
     </row>
   </sheetData>
